--- a/Experiments/RQ1 Effectiveness and Efficiency of detecting NCF bugs/Result table.xlsx
+++ b/Experiments/RQ1 Effectiveness and Efficiency of detecting NCF bugs/Result table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bangy\OneDrive\Desktop\New folder\OLLM\Experiments\RQ1 Effectiveness and Efficiency of detecting NCF bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A0BA82-3925-40F6-8237-15C6C168DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADA0CE-D717-4DDC-9F9E-C3A543507C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,9 +459,6 @@
     <t>Bug Report URL</t>
   </si>
   <si>
-    <t>BUG ID</t>
-  </si>
-  <si>
     <t>Final Decision</t>
   </si>
   <si>
@@ -697,6 +694,9 @@
   </si>
   <si>
     <t>https://chat.openai.com/share/32072371-e3be-42a6-8755-ba247c7047b7</t>
+  </si>
+  <si>
+    <t>BUGid</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1053,21 +1053,21 @@
         <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>38</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1076,21 +1076,21 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>41</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1099,21 +1099,21 @@
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -1122,21 +1122,21 @@
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>44</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1145,21 +1145,21 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1168,21 +1168,21 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>48</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1191,21 +1191,21 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>50</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1214,21 +1214,21 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>53</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -1237,21 +1237,21 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>54</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -1260,21 +1260,21 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>56</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -1283,21 +1283,21 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>62</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1306,21 +1306,21 @@
         <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>63</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1329,21 +1329,21 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>66</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1352,21 +1352,21 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>67</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -1375,21 +1375,21 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>86</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -1398,21 +1398,21 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>90</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1421,21 +1421,21 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>99</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
@@ -1444,21 +1444,21 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>103</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
@@ -1467,21 +1467,21 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>107</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
@@ -1490,21 +1490,21 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>112</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -1513,21 +1513,21 @@
         <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>117</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
@@ -1536,21 +1536,21 @@
         <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>271</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
@@ -1559,21 +1559,21 @@
         <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>272</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
@@ -1582,21 +1582,21 @@
         <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>273</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -1605,21 +1605,21 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>274</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
@@ -1628,21 +1628,21 @@
         <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>360</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -1651,21 +1651,21 @@
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>364</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
@@ -1674,21 +1674,21 @@
         <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>372</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -1697,21 +1697,21 @@
         <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>375</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -1720,21 +1720,21 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>379</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
@@ -1743,21 +1743,21 @@
         <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>385</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
@@ -1766,21 +1766,21 @@
         <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>393</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
@@ -1789,21 +1789,21 @@
         <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>398</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
@@ -1812,21 +1812,21 @@
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>399</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
@@ -1835,21 +1835,21 @@
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>6</v>
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
@@ -1858,21 +1858,21 @@
         <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>13</v>
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>36</v>
@@ -1881,21 +1881,21 @@
         <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>15</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>37</v>
@@ -1904,21 +1904,21 @@
         <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>19</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>38</v>
@@ -1927,21 +1927,21 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>22</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>39</v>
@@ -1950,21 +1950,21 @@
         <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>24</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
@@ -1973,21 +1973,21 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>34</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>41</v>
@@ -1996,21 +1996,21 @@
         <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>49</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>42</v>
@@ -2019,21 +2019,21 @@
         <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>57</v>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>43</v>
@@ -2042,21 +2042,21 @@
         <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>58</v>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>44</v>
@@ -2065,21 +2065,21 @@
         <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>72</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>45</v>
@@ -2088,21 +2088,21 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>80</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>46</v>
@@ -2111,21 +2111,21 @@
         <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>94</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>47</v>
@@ -2134,21 +2134,21 @@
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>97</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>48</v>
@@ -2157,21 +2157,21 @@
         <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>100</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>49</v>
@@ -2180,21 +2180,21 @@
         <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>101</v>
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>50</v>
@@ -2203,21 +2203,21 @@
         <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>104</v>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>51</v>
@@ -2226,21 +2226,21 @@
         <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>108</v>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
@@ -2249,21 +2249,21 @@
         <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>111</v>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>53</v>
@@ -2272,21 +2272,21 @@
         <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>116</v>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>54</v>
@@ -2295,21 +2295,21 @@
         <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>126</v>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>55</v>
@@ -2318,21 +2318,21 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>134</v>
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>56</v>
@@ -2341,21 +2341,21 @@
         <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>135</v>
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>57</v>
@@ -2364,21 +2364,21 @@
         <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>137</v>
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>58</v>
@@ -2387,21 +2387,21 @@
         <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>139</v>
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>59</v>
@@ -2410,21 +2410,21 @@
         <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>140</v>
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>60</v>
@@ -2433,21 +2433,21 @@
         <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>141</v>
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>61</v>
@@ -2456,21 +2456,21 @@
         <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>143</v>
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>62</v>
@@ -2479,21 +2479,21 @@
         <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>210</v>
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>63</v>
@@ -2502,21 +2502,21 @@
         <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>212</v>
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>64</v>
@@ -2525,21 +2525,21 @@
         <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>229</v>
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>65</v>
@@ -2548,21 +2548,21 @@
         <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>236</v>
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>66</v>
@@ -2571,21 +2571,21 @@
         <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>293</v>
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>67</v>
@@ -2594,21 +2594,21 @@
         <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>296</v>
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>68</v>
@@ -2617,21 +2617,21 @@
         <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>299</v>
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>69</v>
@@ -2640,21 +2640,21 @@
         <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>329</v>
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>70</v>
@@ -2663,21 +2663,21 @@
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>347</v>
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>71</v>
@@ -2686,16 +2686,16 @@
         <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/RQ1 Effectiveness and Efficiency of detecting NCF bugs/Result table.xlsx
+++ b/Experiments/RQ1 Effectiveness and Efficiency of detecting NCF bugs/Result table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bangy\OneDrive\Desktop\New folder\OLLM\Experiments\RQ1 Effectiveness and Efficiency of detecting NCF bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADA0CE-D717-4DDC-9F9E-C3A543507C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A47C4-CA84-4450-A9B8-11CC7EF2859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
   <si>
     <t>Bug Name</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Bug Report URL</t>
   </si>
   <si>
-    <t>Final Decision</t>
-  </si>
-  <si>
     <t>FN</t>
   </si>
   <si>
@@ -474,229 +471,16 @@
     <t>TPC(Last 5)</t>
   </si>
   <si>
-    <t>Prompt1</t>
-  </si>
-  <si>
-    <t>Prompt2</t>
-  </si>
-  <si>
-    <t>URL-Prompt1</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/b9e62f5b-74a9-4423-a451-3eea122baced</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/b8a0631b-9449-4725-913a-e8b018db0261</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/8571d730-cbbb-431c-aefe-01b09bd1b187</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/8b49543f-72cc-471e-b2a8-c39238289059</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/38d9a35b-90ec-4060-8c60-8c433946b3cf</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/d8507613-c0aa-4c4a-a377-0dd144014cb3</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/4f07d740-de11-4f65-ad14-d16e758bc348</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/c/76d4515c-c1bf-4739-af28-d8b3d0bee41c</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/84fb20ba-4132-464d-a4db-90a3491669a8</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/f515910e-ab89-43be-8959-be8cb5dc42c7</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/f93d4ebd-995d-461c-ab25-1d4cfca9ab8d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/6e2a703d-0f25-49ab-b02d-e299237e6b6f</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/876fc97e-0a7b-4a99-a952-c17f8c0fee86</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/917010a8-b3c2-4fbf-8bb3-b1985407f433</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/e7a754e6-5c2a-48ac-b4c0-eae6a6bbddb9</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/72c1bc2d-ab90-4c33-a8e1-e37bfea341d0</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/a1427cec-355b-47d7-aa83-2da6dbb21f7c</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/babd5538-8aa4-4ba9-9d5d-4fa6d36fcf3d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/f2c617ec-01b5-43ea-806b-05aa054d9984</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/a438bc39-ca9b-4aaa-8365-b5cf5f32d3d3</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/00238099-cecd-4d42-bedd-1e23c764621a</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/1eb9381e-cb23-4ce7-a029-7edefcb6dc21</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/20d28cec-5a29-4ace-8fd8-977ae36672ef</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/26b15902-3405-4466-bf7b-7fa20e66be9d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/6425d36a-c076-4913-84a2-4b196705a7e4</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/aed6d643-76fc-4e5e-8148-08b1fe479e71</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/f5c82e20-5f10-47a5-bc72-10eaba769752</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/e3d3e953-26cb-4ba5-b7fe-ca4ae0d3f081</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/291b1632-cf3f-47dc-8d4f-cffd88a901d6</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/d1f90c29-d9ac-4d7e-99b6-845dde5118c1</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/d1a72ee4-834b-444d-93a2-f3426cba09cc</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/6134fdde-cb6c-40fd-946a-c52aeee716ac</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/ec089a9e-05c4-4d02-85cb-6d103f4a841a</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/9c5c9f65-5274-4360-9d72-91d975268057</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/1559694d-af9e-41c2-967e-91a97cf7115b</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/32ddc79a-d963-4563-b2e6-b38f8d15c0ba</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/f49c8add-de7b-4436-bf78-2d9caabb9c7b</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/1ef664a6-31e7-4e46-9721-174996c7c38e</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/9d7484f9-6b3c-454a-9d30-55b3c84b977d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/841eecba-953a-42b7-8baa-831843acea97</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/29948f68-c7c1-4cf3-a0d1-5b5d120211b0</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/35e73583-8f27-40a5-9b31-370418613c0f</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/14f47967-eeae-45e7-9018-6f4331766f0f</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/3b6dea55-b6f5-48a8-9196-4ebbc7b13b81</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/e72d1fa1-c708-46f4-aea5-6a2190ae135f</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/dc6903fc-31a3-4d7c-b2ef-9154ffd4d38d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/1e78f70b-cf59-4f62-b01a-3c8eb12dbbc3</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/24476a51-0b6d-48f5-9ac3-0b39043fb126</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/a1a6e992-8bc8-4a59-b05d-24fc1ba9bc13</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/ec1fa2fa-516a-4de3-bb0b-1db8f03c8937</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/b4786fb8-ffac-4313-a015-d18310a1c964</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/bbcf2738-1d15-4e7e-8eb7-d24b4c651845</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/5c9cade9-6f7d-4d85-86e8-67982393ae5d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/b6e9a0c5-98b8-4fe0-914e-b10a106bd2e9</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/6d2c3a7a-bf35-4f11-8f0b-1dae0bab9b3f</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/30e4ed43-f12c-4dc4-ae58-ce7cb258d168</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/fa1bd0ea-ae37-4d6b-aeec-c50ec4049d13</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/e6a64fa5-4254-4411-9267-275bd0d02ae1</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/56cee876-ee03-4c3e-95d7-cc151677057c</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/c482d580-2f34-4b15-91a0-7efa7a40179e</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/db742a80-45a5-4b06-962f-c17596bc86b1</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/18cf1f76-a6d5-499c-86e6-38dccd78f77e</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/f5ce6d09-642d-4ce5-b44f-9f197b3376c5</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/420694f5-38c2-48aa-93b8-032e1048fb0d</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/b9a7cacd-6d22-475e-a38d-6db3a5aa92a0</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/21ae87b8-f027-45db-b995-715b92ecdae9</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/8d69aec5-0f59-447c-8d66-f1165b01f491</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/8cabdba1-9c1b-4326-a6fc-43dfa48245c5</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/17d4e5eb-7e9a-4357-bf83-27029a17e5f6</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/791edc5c-cf14-4e24-ae04-ccc42225a04f</t>
-  </si>
-  <si>
-    <t>https://chat.openai.com/share/32072371-e3be-42a6-8755-ba247c7047b7</t>
-  </si>
-  <si>
     <t>BUGid</t>
+  </si>
+  <si>
+    <t>OLLM-P1</t>
+  </si>
+  <si>
+    <t>OLLM-P2</t>
+  </si>
+  <si>
+    <t>OLLM</t>
   </si>
 </sst>
 </file>
@@ -1029,22 +813,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1059,13 +843,10 @@
         <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1076,19 +857,16 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1099,19 +877,16 @@
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1122,19 +897,16 @@
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1145,19 +917,16 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1168,19 +937,16 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1191,19 +957,16 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1214,19 +977,16 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1237,19 +997,16 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1260,19 +1017,16 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1283,19 +1037,16 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1306,19 +1057,16 @@
         <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1329,19 +1077,16 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1352,19 +1097,16 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
-        <v>147</v>
-      </c>
       <c r="F14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1375,19 +1117,16 @@
         <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1398,19 +1137,16 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1421,19 +1157,16 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1444,19 +1177,16 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1467,19 +1197,16 @@
         <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1490,19 +1217,16 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1513,19 +1237,16 @@
         <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1536,19 +1257,16 @@
         <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1559,19 +1277,16 @@
         <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1582,19 +1297,16 @@
         <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1605,19 +1317,16 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1628,19 +1337,16 @@
         <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1651,19 +1357,16 @@
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1674,19 +1377,16 @@
         <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1697,19 +1397,16 @@
         <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1720,19 +1417,16 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1743,19 +1437,16 @@
         <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1766,19 +1457,16 @@
         <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1789,19 +1477,16 @@
         <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1812,19 +1497,16 @@
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1835,19 +1517,16 @@
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1858,19 +1537,16 @@
         <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1881,19 +1557,16 @@
         <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1904,19 +1577,16 @@
         <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1927,19 +1597,16 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1950,19 +1617,16 @@
         <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1973,19 +1637,16 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1996,19 +1657,16 @@
         <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2019,19 +1677,16 @@
         <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2042,19 +1697,16 @@
         <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
-      </c>
-      <c r="G44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2065,19 +1717,16 @@
         <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2088,19 +1737,16 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2111,19 +1757,16 @@
         <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2134,19 +1777,16 @@
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2157,19 +1797,16 @@
         <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2180,19 +1817,16 @@
         <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2203,19 +1837,16 @@
         <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2226,19 +1857,16 @@
         <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2249,19 +1877,16 @@
         <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2272,19 +1897,16 @@
         <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2295,19 +1917,16 @@
         <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
-      </c>
-      <c r="G55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2318,19 +1937,16 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2341,19 +1957,16 @@
         <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2364,19 +1977,16 @@
         <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2387,19 +1997,16 @@
         <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2410,19 +2017,16 @@
         <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2433,19 +2037,16 @@
         <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
-      </c>
-      <c r="G61" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2456,19 +2057,16 @@
         <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2479,19 +2077,16 @@
         <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
-      </c>
-      <c r="G63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2502,19 +2097,16 @@
         <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
-      </c>
-      <c r="G64" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2525,19 +2117,16 @@
         <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
-      </c>
-      <c r="G65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2548,19 +2137,16 @@
         <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2571,19 +2157,16 @@
         <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2594,19 +2177,16 @@
         <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2617,19 +2197,16 @@
         <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2640,19 +2217,16 @@
         <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2663,19 +2237,16 @@
         <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
-      </c>
-      <c r="G71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2686,16 +2257,13 @@
         <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/RQ1 Effectiveness and Efficiency of detecting NCF bugs/Result table.xlsx
+++ b/Experiments/RQ1 Effectiveness and Efficiency of detecting NCF bugs/Result table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bangy\OneDrive\Desktop\New folder\OLLM\Experiments\RQ1 Effectiveness and Efficiency of detecting NCF bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A47C4-CA84-4450-A9B8-11CC7EF2859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70598D9-7AFD-4969-BA0D-B5FCE0B413BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="154">
   <si>
     <t>Bug Name</t>
   </si>
@@ -468,9 +468,6 @@
     <t>TPW</t>
   </si>
   <si>
-    <t>TPC(Last 5)</t>
-  </si>
-  <si>
     <t>BUGid</t>
   </si>
   <si>
@@ -481,6 +478,15 @@
   </si>
   <si>
     <t>OLLM</t>
+  </si>
+  <si>
+    <t>TPC Rate</t>
+  </si>
+  <si>
+    <t>TPW: OLLM detected the bug in the sequence but provided the wrong anwer</t>
+  </si>
+  <si>
+    <t>TPC: OLLM detected the bug in the sequence and provided the correct answer</t>
   </si>
 </sst>
 </file>
@@ -504,12 +510,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -524,13 +548,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -813,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,30 +860,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -870,7 +903,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -890,7 +923,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -910,7 +943,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -930,7 +963,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -950,7 +983,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -970,7 +1003,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -990,7 +1023,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -1010,7 +1043,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -1030,7 +1063,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -1050,7 +1083,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -1070,7 +1103,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -1090,7 +1123,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -1110,7 +1143,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -1130,7 +1163,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -1146,11 +1179,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -1165,12 +1198,22 @@
       <c r="F17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+      <c r="L17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -1185,12 +1228,24 @@
       <c r="F18" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="M18" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -1206,11 +1261,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -1226,11 +1281,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -1245,12 +1300,15 @@
       <c r="F21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -1265,19 +1323,22 @@
       <c r="F22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
         <v>144</v>
@@ -1286,11 +1347,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -1306,11 +1367,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -1326,18 +1387,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
         <v>145</v>
@@ -1346,11 +1407,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -1366,11 +1427,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -1386,11 +1447,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -1406,11 +1467,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -1426,11 +1487,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -1446,11 +1507,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -1470,7 +1531,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -1490,7 +1551,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -1510,7 +1571,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -1530,7 +1591,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -1550,7 +1611,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -1570,7 +1631,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -1590,7 +1651,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -1610,7 +1671,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -1630,7 +1691,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -1650,7 +1711,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -1670,7 +1731,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
@@ -1690,7 +1751,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
@@ -1710,7 +1771,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -1730,7 +1791,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -1750,7 +1811,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -1770,7 +1831,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
@@ -1790,7 +1851,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
@@ -1810,7 +1871,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="s">
@@ -1830,7 +1891,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
@@ -1850,7 +1911,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
@@ -1870,7 +1931,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
@@ -1890,7 +1951,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
@@ -1910,7 +1971,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
@@ -1930,7 +1991,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
@@ -1950,7 +2011,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
@@ -1970,7 +2031,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="s">
@@ -1990,7 +2051,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="s">
@@ -2010,7 +2071,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="s">
@@ -2030,7 +2091,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C61" t="s">
@@ -2050,7 +2111,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
@@ -2070,7 +2131,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C63" t="s">
@@ -2090,7 +2151,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C64" t="s">
@@ -2110,7 +2171,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C65" t="s">
@@ -2130,7 +2191,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C66" t="s">
@@ -2150,7 +2211,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C67" t="s">
@@ -2170,7 +2231,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C68" t="s">
@@ -2190,7 +2251,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C69" t="s">
@@ -2210,7 +2271,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C70" t="s">
@@ -2230,7 +2291,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C71" t="s">
@@ -2250,7 +2311,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
@@ -2268,5 +2329,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>